--- a/prep/SPP/spp_wetland_plants.xlsx
+++ b/prep/SPP/spp_wetland_plants.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1680" yWindow="1560" windowWidth="22755" windowHeight="8610" activeTab="1"/>
+    <workbookView xWindow="525" yWindow="-165" windowWidth="22755" windowHeight="12090" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="protected_wetland_species" sheetId="3" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2539" uniqueCount="726">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2036" uniqueCount="726">
   <si>
     <t>"Symbol","Synonym Symbol","Scientific Name","Common Name","Indicator","Region","Subregion"</t>
   </si>
@@ -3265,10 +3265,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G170"/>
+  <dimension ref="A1:G82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3332,41 +3332,41 @@
         <v>442</v>
       </c>
       <c r="F3" t="s">
-        <v>433</v>
+        <v>437</v>
+      </c>
+      <c r="G3" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="C4" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="D4" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="E4" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="F4" t="s">
-        <v>435</v>
-      </c>
-      <c r="G4" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="C5" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="D5" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="E5" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="F5" t="s">
         <v>437</v>
@@ -3377,47 +3377,50 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>443</v>
+        <v>450</v>
       </c>
       <c r="C6" t="s">
-        <v>444</v>
+        <v>451</v>
       </c>
       <c r="D6" t="s">
-        <v>445</v>
+        <v>452</v>
       </c>
       <c r="E6" t="s">
-        <v>432</v>
+        <v>449</v>
       </c>
       <c r="F6" t="s">
         <v>437</v>
+      </c>
+      <c r="G6" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>443</v>
+        <v>460</v>
       </c>
       <c r="C7" t="s">
-        <v>444</v>
+        <v>461</v>
       </c>
       <c r="D7" t="s">
-        <v>445</v>
+        <v>462</v>
       </c>
       <c r="E7" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="F7" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>443</v>
+        <v>460</v>
       </c>
       <c r="C8" t="s">
-        <v>444</v>
+        <v>461</v>
       </c>
       <c r="D8" t="s">
-        <v>445</v>
+        <v>462</v>
       </c>
       <c r="E8" t="s">
         <v>446</v>
@@ -3431,110 +3434,107 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>450</v>
+        <v>464</v>
       </c>
       <c r="C9" t="s">
-        <v>451</v>
+        <v>465</v>
       </c>
       <c r="D9" t="s">
-        <v>452</v>
+        <v>466</v>
       </c>
       <c r="E9" t="s">
-        <v>449</v>
+        <v>432</v>
       </c>
       <c r="F9" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>450</v>
+        <v>464</v>
       </c>
       <c r="C10" t="s">
-        <v>451</v>
+        <v>465</v>
       </c>
       <c r="D10" t="s">
-        <v>452</v>
+        <v>466</v>
       </c>
       <c r="E10" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="F10" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="G10" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>450</v>
+        <v>467</v>
       </c>
       <c r="C11" t="s">
-        <v>451</v>
+        <v>468</v>
       </c>
       <c r="D11" t="s">
-        <v>452</v>
+        <v>469</v>
       </c>
       <c r="E11" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="F11" t="s">
         <v>437</v>
-      </c>
-      <c r="G11" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>460</v>
+        <v>467</v>
       </c>
       <c r="C12" t="s">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="D12" t="s">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="E12" t="s">
-        <v>446</v>
+        <v>432</v>
       </c>
       <c r="F12" t="s">
         <v>437</v>
+      </c>
+      <c r="G12" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>460</v>
+        <v>467</v>
+      </c>
+      <c r="B13" t="s">
+        <v>470</v>
       </c>
       <c r="C13" t="s">
-        <v>461</v>
-      </c>
-      <c r="D13" t="s">
-        <v>462</v>
+        <v>471</v>
       </c>
       <c r="E13" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="F13" t="s">
         <v>437</v>
-      </c>
-      <c r="G13" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>464</v>
+        <v>472</v>
       </c>
       <c r="C14" t="s">
-        <v>465</v>
+        <v>473</v>
       </c>
       <c r="D14" t="s">
-        <v>466</v>
+        <v>474</v>
       </c>
       <c r="E14" t="s">
-        <v>432</v>
+        <v>446</v>
       </c>
       <c r="F14" t="s">
         <v>437</v>
@@ -3542,16 +3542,16 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>464</v>
+        <v>472</v>
       </c>
       <c r="C15" t="s">
-        <v>465</v>
+        <v>473</v>
       </c>
       <c r="D15" t="s">
-        <v>466</v>
+        <v>474</v>
       </c>
       <c r="E15" t="s">
-        <v>446</v>
+        <v>432</v>
       </c>
       <c r="F15" t="s">
         <v>437</v>
@@ -3562,16 +3562,16 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>467</v>
+        <v>477</v>
       </c>
       <c r="C16" t="s">
-        <v>468</v>
+        <v>478</v>
       </c>
       <c r="D16" t="s">
-        <v>469</v>
+        <v>479</v>
       </c>
       <c r="E16" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="F16" t="s">
         <v>437</v>
@@ -3579,90 +3579,87 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>467</v>
+        <v>477</v>
       </c>
       <c r="C17" t="s">
-        <v>468</v>
+        <v>478</v>
       </c>
       <c r="D17" t="s">
-        <v>469</v>
+        <v>479</v>
       </c>
       <c r="E17" t="s">
-        <v>446</v>
+        <v>432</v>
       </c>
       <c r="F17" t="s">
-        <v>433</v>
+        <v>437</v>
+      </c>
+      <c r="G17" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>467</v>
+        <v>480</v>
       </c>
       <c r="C18" t="s">
-        <v>468</v>
+        <v>481</v>
       </c>
       <c r="D18" t="s">
-        <v>469</v>
+        <v>482</v>
       </c>
       <c r="E18" t="s">
         <v>432</v>
       </c>
       <c r="F18" t="s">
-        <v>435</v>
-      </c>
-      <c r="G18" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>467</v>
+        <v>480</v>
       </c>
       <c r="C19" t="s">
-        <v>468</v>
+        <v>481</v>
       </c>
       <c r="D19" t="s">
-        <v>469</v>
+        <v>482</v>
       </c>
       <c r="E19" t="s">
         <v>446</v>
       </c>
       <c r="F19" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="G19" t="s">
-        <v>455</v>
+        <v>438</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>467</v>
+        <v>483</v>
       </c>
       <c r="C20" t="s">
-        <v>468</v>
+        <v>484</v>
       </c>
       <c r="D20" t="s">
-        <v>469</v>
+        <v>485</v>
       </c>
       <c r="E20" t="s">
-        <v>432</v>
+        <v>446</v>
       </c>
       <c r="F20" t="s">
         <v>437</v>
-      </c>
-      <c r="G20" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="B21" t="s">
-        <v>470</v>
+        <v>483</v>
       </c>
       <c r="C21" t="s">
-        <v>471</v>
+        <v>484</v>
+      </c>
+      <c r="D21" t="s">
+        <v>485</v>
       </c>
       <c r="E21" t="s">
         <v>442</v>
@@ -3670,184 +3667,184 @@
       <c r="F21" t="s">
         <v>437</v>
       </c>
+      <c r="G21" t="s">
+        <v>438</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="B22" t="s">
-        <v>470</v>
+        <v>498</v>
       </c>
       <c r="C22" t="s">
-        <v>471</v>
+        <v>499</v>
+      </c>
+      <c r="D22" t="s">
+        <v>500</v>
       </c>
       <c r="E22" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="F22" t="s">
-        <v>435</v>
-      </c>
-      <c r="G22" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>472</v>
+        <v>498</v>
       </c>
       <c r="C23" t="s">
-        <v>473</v>
+        <v>499</v>
       </c>
       <c r="D23" t="s">
-        <v>474</v>
+        <v>500</v>
       </c>
       <c r="E23" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="F23" t="s">
         <v>437</v>
+      </c>
+      <c r="G23" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>472</v>
+        <v>501</v>
       </c>
       <c r="C24" t="s">
-        <v>473</v>
+        <v>502</v>
       </c>
       <c r="D24" t="s">
-        <v>474</v>
+        <v>503</v>
       </c>
       <c r="E24" t="s">
-        <v>446</v>
+        <v>434</v>
       </c>
       <c r="F24" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>472</v>
+        <v>501</v>
       </c>
       <c r="C25" t="s">
-        <v>473</v>
+        <v>502</v>
       </c>
       <c r="D25" t="s">
-        <v>474</v>
+        <v>503</v>
       </c>
       <c r="E25" t="s">
-        <v>446</v>
+        <v>432</v>
       </c>
       <c r="F25" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="G25" t="s">
-        <v>453</v>
+        <v>438</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>472</v>
+        <v>506</v>
       </c>
       <c r="C26" t="s">
-        <v>473</v>
+        <v>507</v>
       </c>
       <c r="D26" t="s">
-        <v>474</v>
+        <v>508</v>
       </c>
       <c r="E26" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="F26" t="s">
-        <v>435</v>
-      </c>
-      <c r="G26" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>472</v>
+        <v>506</v>
       </c>
       <c r="C27" t="s">
-        <v>473</v>
+        <v>507</v>
       </c>
       <c r="D27" t="s">
-        <v>474</v>
+        <v>508</v>
       </c>
       <c r="E27" t="s">
         <v>446</v>
       </c>
       <c r="F27" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="G27" t="s">
-        <v>455</v>
+        <v>438</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>472</v>
+        <v>511</v>
       </c>
       <c r="C28" t="s">
-        <v>473</v>
+        <v>512</v>
       </c>
       <c r="D28" t="s">
-        <v>474</v>
+        <v>513</v>
       </c>
       <c r="E28" t="s">
-        <v>432</v>
+        <v>446</v>
       </c>
       <c r="F28" t="s">
         <v>437</v>
-      </c>
-      <c r="G28" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>477</v>
+        <v>511</v>
       </c>
       <c r="C29" t="s">
-        <v>478</v>
+        <v>512</v>
       </c>
       <c r="D29" t="s">
-        <v>479</v>
+        <v>513</v>
       </c>
       <c r="E29" t="s">
-        <v>434</v>
+        <v>446</v>
       </c>
       <c r="F29" t="s">
         <v>437</v>
+      </c>
+      <c r="G29" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>477</v>
+        <v>516</v>
       </c>
       <c r="C30" t="s">
-        <v>478</v>
+        <v>517</v>
       </c>
       <c r="D30" t="s">
-        <v>479</v>
+        <v>518</v>
       </c>
       <c r="E30" t="s">
         <v>446</v>
       </c>
       <c r="F30" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>477</v>
+        <v>516</v>
       </c>
       <c r="C31" t="s">
-        <v>478</v>
+        <v>517</v>
       </c>
       <c r="D31" t="s">
-        <v>479</v>
+        <v>518</v>
       </c>
       <c r="E31" t="s">
         <v>432</v>
@@ -3861,16 +3858,16 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>480</v>
+        <v>519</v>
       </c>
       <c r="C32" t="s">
-        <v>481</v>
+        <v>520</v>
       </c>
       <c r="D32" t="s">
-        <v>482</v>
+        <v>521</v>
       </c>
       <c r="E32" t="s">
-        <v>432</v>
+        <v>449</v>
       </c>
       <c r="F32" t="s">
         <v>437</v>
@@ -3878,33 +3875,33 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>480</v>
+        <v>519</v>
       </c>
       <c r="C33" t="s">
-        <v>481</v>
+        <v>520</v>
       </c>
       <c r="D33" t="s">
-        <v>482</v>
+        <v>521</v>
       </c>
       <c r="E33" t="s">
         <v>434</v>
       </c>
       <c r="F33" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="G33" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>480</v>
+        <v>526</v>
       </c>
       <c r="C34" t="s">
-        <v>481</v>
+        <v>527</v>
       </c>
       <c r="D34" t="s">
-        <v>482</v>
+        <v>528</v>
       </c>
       <c r="E34" t="s">
         <v>446</v>
@@ -3912,19 +3909,16 @@
       <c r="F34" t="s">
         <v>437</v>
       </c>
-      <c r="G34" t="s">
-        <v>438</v>
-      </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>483</v>
+        <v>526</v>
       </c>
       <c r="C35" t="s">
-        <v>484</v>
+        <v>527</v>
       </c>
       <c r="D35" t="s">
-        <v>485</v>
+        <v>528</v>
       </c>
       <c r="E35" t="s">
         <v>446</v>
@@ -3932,36 +3926,36 @@
       <c r="F35" t="s">
         <v>437</v>
       </c>
+      <c r="G35" t="s">
+        <v>438</v>
+      </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>483</v>
+        <v>529</v>
+      </c>
+      <c r="B36" t="s">
+        <v>530</v>
       </c>
       <c r="C36" t="s">
-        <v>484</v>
-      </c>
-      <c r="D36" t="s">
-        <v>485</v>
+        <v>531</v>
       </c>
       <c r="E36" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="F36" t="s">
         <v>437</v>
-      </c>
-      <c r="G36" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>498</v>
+        <v>529</v>
+      </c>
+      <c r="B37" t="s">
+        <v>530</v>
       </c>
       <c r="C37" t="s">
-        <v>499</v>
-      </c>
-      <c r="D37" t="s">
-        <v>500</v>
+        <v>531</v>
       </c>
       <c r="E37" t="s">
         <v>434</v>
@@ -3969,130 +3963,130 @@
       <c r="F37" t="s">
         <v>437</v>
       </c>
+      <c r="G37" t="s">
+        <v>438</v>
+      </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>498</v>
+        <v>534</v>
       </c>
       <c r="C38" t="s">
-        <v>499</v>
+        <v>535</v>
       </c>
       <c r="D38" t="s">
-        <v>500</v>
+        <v>536</v>
       </c>
       <c r="E38" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="F38" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>498</v>
+        <v>534</v>
       </c>
       <c r="C39" t="s">
-        <v>499</v>
+        <v>535</v>
       </c>
       <c r="D39" t="s">
-        <v>500</v>
+        <v>536</v>
       </c>
       <c r="E39" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="F39" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="G39" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>498</v>
+        <v>537</v>
       </c>
       <c r="C40" t="s">
-        <v>499</v>
+        <v>538</v>
       </c>
       <c r="D40" t="s">
-        <v>500</v>
+        <v>539</v>
       </c>
       <c r="E40" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="F40" t="s">
-        <v>435</v>
-      </c>
-      <c r="G40" t="s">
-        <v>454</v>
+        <v>437</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>498</v>
+        <v>537</v>
       </c>
       <c r="C41" t="s">
-        <v>499</v>
+        <v>538</v>
       </c>
       <c r="D41" t="s">
-        <v>500</v>
+        <v>539</v>
       </c>
       <c r="E41" t="s">
-        <v>449</v>
+        <v>432</v>
       </c>
       <c r="F41" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="G41" t="s">
-        <v>455</v>
+        <v>438</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>498</v>
+        <v>540</v>
       </c>
       <c r="C42" t="s">
-        <v>499</v>
+        <v>541</v>
       </c>
       <c r="D42" t="s">
-        <v>500</v>
+        <v>542</v>
       </c>
       <c r="E42" t="s">
-        <v>449</v>
+        <v>432</v>
       </c>
       <c r="F42" t="s">
         <v>437</v>
-      </c>
-      <c r="G42" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>501</v>
+        <v>540</v>
       </c>
       <c r="C43" t="s">
-        <v>502</v>
+        <v>541</v>
       </c>
       <c r="D43" t="s">
-        <v>503</v>
+        <v>542</v>
       </c>
       <c r="E43" t="s">
-        <v>434</v>
+        <v>446</v>
       </c>
       <c r="F43" t="s">
         <v>437</v>
+      </c>
+      <c r="G43" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>501</v>
+        <v>545</v>
       </c>
       <c r="C44" t="s">
-        <v>502</v>
+        <v>546</v>
       </c>
       <c r="D44" t="s">
-        <v>503</v>
+        <v>547</v>
       </c>
       <c r="E44" t="s">
         <v>432</v>
@@ -4100,36 +4094,36 @@
       <c r="F44" t="s">
         <v>437</v>
       </c>
-      <c r="G44" t="s">
-        <v>438</v>
-      </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>506</v>
+        <v>545</v>
       </c>
       <c r="C45" t="s">
-        <v>507</v>
+        <v>546</v>
       </c>
       <c r="D45" t="s">
-        <v>508</v>
+        <v>547</v>
       </c>
       <c r="E45" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="F45" t="s">
         <v>437</v>
+      </c>
+      <c r="G45" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>506</v>
+        <v>551</v>
       </c>
       <c r="C46" t="s">
-        <v>507</v>
+        <v>552</v>
       </c>
       <c r="D46" t="s">
-        <v>508</v>
+        <v>553</v>
       </c>
       <c r="E46" t="s">
         <v>446</v>
@@ -4137,36 +4131,36 @@
       <c r="F46" t="s">
         <v>437</v>
       </c>
-      <c r="G46" t="s">
-        <v>438</v>
-      </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>511</v>
+        <v>551</v>
       </c>
       <c r="C47" t="s">
-        <v>512</v>
+        <v>552</v>
       </c>
       <c r="D47" t="s">
-        <v>513</v>
+        <v>553</v>
       </c>
       <c r="E47" t="s">
-        <v>446</v>
+        <v>432</v>
       </c>
       <c r="F47" t="s">
         <v>437</v>
+      </c>
+      <c r="G47" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>511</v>
+        <v>554</v>
       </c>
       <c r="C48" t="s">
-        <v>512</v>
+        <v>555</v>
       </c>
       <c r="D48" t="s">
-        <v>513</v>
+        <v>556</v>
       </c>
       <c r="E48" t="s">
         <v>446</v>
@@ -4174,344 +4168,335 @@
       <c r="F48" t="s">
         <v>437</v>
       </c>
-      <c r="G48" t="s">
-        <v>438</v>
-      </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>516</v>
+        <v>554</v>
       </c>
       <c r="C49" t="s">
-        <v>517</v>
+        <v>555</v>
       </c>
       <c r="D49" t="s">
-        <v>518</v>
+        <v>556</v>
       </c>
       <c r="E49" t="s">
-        <v>446</v>
+        <v>432</v>
       </c>
       <c r="F49" t="s">
         <v>437</v>
+      </c>
+      <c r="G49" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>516</v>
+        <v>561</v>
       </c>
       <c r="C50" t="s">
-        <v>517</v>
+        <v>562</v>
       </c>
       <c r="D50" t="s">
-        <v>518</v>
+        <v>563</v>
       </c>
       <c r="E50" t="s">
-        <v>434</v>
+        <v>446</v>
       </c>
       <c r="F50" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>516</v>
+        <v>561</v>
       </c>
       <c r="C51" t="s">
-        <v>517</v>
+        <v>562</v>
       </c>
       <c r="D51" t="s">
-        <v>518</v>
+        <v>563</v>
       </c>
       <c r="E51" t="s">
-        <v>432</v>
+        <v>446</v>
       </c>
       <c r="F51" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="G51" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>516</v>
+        <v>564</v>
       </c>
       <c r="C52" t="s">
-        <v>517</v>
+        <v>565</v>
       </c>
       <c r="D52" t="s">
-        <v>518</v>
+        <v>566</v>
       </c>
       <c r="E52" t="s">
-        <v>432</v>
+        <v>446</v>
       </c>
       <c r="F52" t="s">
         <v>437</v>
-      </c>
-      <c r="G52" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>519</v>
+        <v>564</v>
       </c>
       <c r="C53" t="s">
-        <v>520</v>
+        <v>565</v>
       </c>
       <c r="D53" t="s">
-        <v>521</v>
+        <v>566</v>
       </c>
       <c r="E53" t="s">
-        <v>449</v>
+        <v>432</v>
       </c>
       <c r="F53" t="s">
         <v>437</v>
+      </c>
+      <c r="G53" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>519</v>
+        <v>571</v>
       </c>
       <c r="C54" t="s">
-        <v>520</v>
+        <v>572</v>
       </c>
       <c r="D54" t="s">
-        <v>521</v>
+        <v>573</v>
       </c>
       <c r="E54" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="F54" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>519</v>
+        <v>571</v>
       </c>
       <c r="C55" t="s">
-        <v>520</v>
+        <v>572</v>
       </c>
       <c r="D55" t="s">
-        <v>521</v>
+        <v>573</v>
       </c>
       <c r="E55" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="F55" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="G55" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>519</v>
+        <v>574</v>
       </c>
       <c r="C56" t="s">
-        <v>520</v>
+        <v>575</v>
       </c>
       <c r="D56" t="s">
-        <v>521</v>
+        <v>576</v>
       </c>
       <c r="E56" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="F56" t="s">
-        <v>435</v>
-      </c>
-      <c r="G56" t="s">
-        <v>454</v>
+        <v>437</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>519</v>
+        <v>574</v>
       </c>
       <c r="C57" t="s">
-        <v>520</v>
+        <v>575</v>
       </c>
       <c r="D57" t="s">
-        <v>521</v>
+        <v>576</v>
       </c>
       <c r="E57" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="F57" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="G57" t="s">
-        <v>455</v>
+        <v>438</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>519</v>
+        <v>585</v>
       </c>
       <c r="C58" t="s">
-        <v>520</v>
+        <v>586</v>
       </c>
       <c r="D58" t="s">
-        <v>521</v>
+        <v>587</v>
       </c>
       <c r="E58" t="s">
-        <v>434</v>
+        <v>446</v>
       </c>
       <c r="F58" t="s">
         <v>437</v>
-      </c>
-      <c r="G58" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>526</v>
+        <v>585</v>
       </c>
       <c r="C59" t="s">
-        <v>527</v>
+        <v>586</v>
       </c>
       <c r="D59" t="s">
-        <v>528</v>
+        <v>587</v>
       </c>
       <c r="E59" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="F59" t="s">
         <v>437</v>
+      </c>
+      <c r="G59" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>526</v>
+        <v>590</v>
       </c>
       <c r="C60" t="s">
-        <v>527</v>
+        <v>591</v>
       </c>
       <c r="D60" t="s">
-        <v>528</v>
+        <v>592</v>
       </c>
       <c r="E60" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="F60" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>526</v>
+        <v>590</v>
       </c>
       <c r="C61" t="s">
-        <v>527</v>
+        <v>591</v>
       </c>
       <c r="D61" t="s">
-        <v>528</v>
+        <v>592</v>
       </c>
       <c r="E61" t="s">
-        <v>446</v>
+        <v>432</v>
       </c>
       <c r="F61" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="G61" t="s">
-        <v>453</v>
+        <v>438</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>526</v>
+        <v>601</v>
       </c>
       <c r="C62" t="s">
-        <v>527</v>
+        <v>602</v>
       </c>
       <c r="D62" t="s">
-        <v>528</v>
+        <v>603</v>
       </c>
       <c r="E62" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="F62" t="s">
-        <v>435</v>
-      </c>
-      <c r="G62" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>526</v>
+        <v>601</v>
       </c>
       <c r="C63" t="s">
-        <v>527</v>
+        <v>602</v>
       </c>
       <c r="D63" t="s">
-        <v>528</v>
+        <v>603</v>
       </c>
       <c r="E63" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="F63" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="G63" t="s">
-        <v>455</v>
+        <v>438</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>526</v>
+        <v>606</v>
       </c>
       <c r="C64" t="s">
-        <v>527</v>
+        <v>607</v>
       </c>
       <c r="D64" t="s">
-        <v>528</v>
+        <v>608</v>
       </c>
       <c r="E64" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="F64" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="G64" t="s">
-        <v>457</v>
+        <v>438</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>526</v>
+        <v>606</v>
+      </c>
+      <c r="B65" t="s">
+        <v>609</v>
       </c>
       <c r="C65" t="s">
-        <v>527</v>
-      </c>
-      <c r="D65" t="s">
-        <v>528</v>
+        <v>610</v>
       </c>
       <c r="E65" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="F65" t="s">
         <v>437</v>
-      </c>
-      <c r="G65" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>529</v>
-      </c>
-      <c r="B66" t="s">
-        <v>530</v>
+        <v>611</v>
       </c>
       <c r="C66" t="s">
-        <v>531</v>
+        <v>612</v>
+      </c>
+      <c r="D66" t="s">
+        <v>613</v>
       </c>
       <c r="E66" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="F66" t="s">
         <v>437</v>
@@ -4519,50 +4504,50 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>529</v>
-      </c>
-      <c r="B67" t="s">
-        <v>530</v>
+        <v>611</v>
       </c>
       <c r="C67" t="s">
-        <v>531</v>
+        <v>612</v>
+      </c>
+      <c r="D67" t="s">
+        <v>613</v>
       </c>
       <c r="E67" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="F67" t="s">
-        <v>433</v>
+        <v>437</v>
+      </c>
+      <c r="G67" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>529</v>
-      </c>
-      <c r="B68" t="s">
-        <v>530</v>
+        <v>614</v>
       </c>
       <c r="C68" t="s">
-        <v>531</v>
+        <v>615</v>
+      </c>
+      <c r="D68" t="s">
+        <v>616</v>
       </c>
       <c r="E68" t="s">
-        <v>446</v>
+        <v>432</v>
       </c>
       <c r="F68" t="s">
-        <v>435</v>
-      </c>
-      <c r="G68" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>529</v>
-      </c>
-      <c r="B69" t="s">
-        <v>530</v>
+        <v>614</v>
       </c>
       <c r="C69" t="s">
-        <v>531</v>
+        <v>615</v>
+      </c>
+      <c r="D69" t="s">
+        <v>616</v>
       </c>
       <c r="E69" t="s">
         <v>434</v>
@@ -4576,16 +4561,16 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>534</v>
+        <v>619</v>
+      </c>
+      <c r="B70" t="s">
+        <v>620</v>
       </c>
       <c r="C70" t="s">
-        <v>535</v>
-      </c>
-      <c r="D70" t="s">
-        <v>536</v>
+        <v>621</v>
       </c>
       <c r="E70" t="s">
-        <v>446</v>
+        <v>434</v>
       </c>
       <c r="F70" t="s">
         <v>437</v>
@@ -4593,1900 +4578,233 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>534</v>
+        <v>619</v>
+      </c>
+      <c r="B71" t="s">
+        <v>620</v>
       </c>
       <c r="C71" t="s">
-        <v>535</v>
-      </c>
-      <c r="D71" t="s">
-        <v>536</v>
+        <v>621</v>
       </c>
       <c r="E71" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="F71" t="s">
-        <v>433</v>
+        <v>437</v>
+      </c>
+      <c r="G71" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>534</v>
+        <v>622</v>
       </c>
       <c r="C72" t="s">
-        <v>535</v>
+        <v>623</v>
       </c>
       <c r="D72" t="s">
-        <v>536</v>
+        <v>624</v>
       </c>
       <c r="E72" t="s">
         <v>432</v>
       </c>
       <c r="F72" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="G72" t="s">
-        <v>453</v>
+        <v>438</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>534</v>
+        <v>625</v>
+      </c>
+      <c r="B73" t="s">
+        <v>626</v>
       </c>
       <c r="C73" t="s">
-        <v>535</v>
-      </c>
-      <c r="D73" t="s">
-        <v>536</v>
+        <v>627</v>
       </c>
       <c r="E73" t="s">
         <v>432</v>
       </c>
       <c r="F73" t="s">
-        <v>435</v>
-      </c>
-      <c r="G73" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>534</v>
+        <v>625</v>
+      </c>
+      <c r="B74" t="s">
+        <v>626</v>
       </c>
       <c r="C74" t="s">
-        <v>535</v>
-      </c>
-      <c r="D74" t="s">
-        <v>536</v>
+        <v>627</v>
       </c>
       <c r="E74" t="s">
         <v>432</v>
       </c>
       <c r="F74" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="G74" t="s">
-        <v>454</v>
+        <v>438</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>534</v>
+        <v>628</v>
       </c>
       <c r="C75" t="s">
-        <v>535</v>
+        <v>629</v>
       </c>
       <c r="D75" t="s">
-        <v>536</v>
+        <v>630</v>
       </c>
       <c r="E75" t="s">
         <v>432</v>
       </c>
       <c r="F75" t="s">
-        <v>435</v>
-      </c>
-      <c r="G75" t="s">
-        <v>455</v>
+        <v>437</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>534</v>
+        <v>628</v>
       </c>
       <c r="C76" t="s">
-        <v>535</v>
+        <v>629</v>
       </c>
       <c r="D76" t="s">
-        <v>536</v>
+        <v>630</v>
       </c>
       <c r="E76" t="s">
-        <v>432</v>
+        <v>446</v>
       </c>
       <c r="F76" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="G76" t="s">
-        <v>457</v>
+        <v>438</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>534</v>
+        <v>633</v>
       </c>
       <c r="C77" t="s">
-        <v>535</v>
+        <v>634</v>
       </c>
       <c r="D77" t="s">
-        <v>536</v>
+        <v>635</v>
       </c>
       <c r="E77" t="s">
-        <v>446</v>
+        <v>432</v>
       </c>
       <c r="F77" t="s">
         <v>437</v>
-      </c>
-      <c r="G77" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>537</v>
+        <v>633</v>
       </c>
       <c r="C78" t="s">
-        <v>538</v>
+        <v>634</v>
       </c>
       <c r="D78" t="s">
-        <v>539</v>
+        <v>635</v>
       </c>
       <c r="E78" t="s">
-        <v>446</v>
+        <v>432</v>
       </c>
       <c r="F78" t="s">
         <v>437</v>
+      </c>
+      <c r="G78" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>537</v>
+        <v>640</v>
       </c>
       <c r="C79" t="s">
-        <v>538</v>
+        <v>641</v>
       </c>
       <c r="D79" t="s">
-        <v>539</v>
+        <v>642</v>
       </c>
       <c r="E79" t="s">
-        <v>432</v>
+        <v>442</v>
       </c>
       <c r="F79" t="s">
         <v>437</v>
-      </c>
-      <c r="G79" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>540</v>
+        <v>640</v>
       </c>
       <c r="C80" t="s">
-        <v>541</v>
+        <v>641</v>
       </c>
       <c r="D80" t="s">
-        <v>542</v>
+        <v>642</v>
       </c>
       <c r="E80" t="s">
-        <v>432</v>
+        <v>446</v>
       </c>
       <c r="F80" t="s">
         <v>437</v>
+      </c>
+      <c r="G80" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>540</v>
+        <v>643</v>
       </c>
       <c r="C81" t="s">
-        <v>541</v>
+        <v>644</v>
       </c>
       <c r="D81" t="s">
-        <v>542</v>
+        <v>645</v>
       </c>
       <c r="E81" t="s">
-        <v>432</v>
+        <v>446</v>
       </c>
       <c r="F81" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>540</v>
+        <v>643</v>
       </c>
       <c r="C82" t="s">
-        <v>541</v>
+        <v>644</v>
       </c>
       <c r="D82" t="s">
-        <v>542</v>
+        <v>645</v>
       </c>
       <c r="E82" t="s">
-        <v>432</v>
+        <v>446</v>
       </c>
       <c r="F82" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="G82" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="C83" t="s">
-        <v>541</v>
-      </c>
-      <c r="D83" t="s">
-        <v>542</v>
-      </c>
-      <c r="E83" t="s">
-        <v>432</v>
-      </c>
-      <c r="F83" t="s">
-        <v>435</v>
-      </c>
-      <c r="G83" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="C84" t="s">
-        <v>541</v>
-      </c>
-      <c r="D84" t="s">
-        <v>542</v>
-      </c>
-      <c r="E84" t="s">
-        <v>432</v>
-      </c>
-      <c r="F84" t="s">
-        <v>435</v>
-      </c>
-      <c r="G84" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="C85" t="s">
-        <v>541</v>
-      </c>
-      <c r="D85" t="s">
-        <v>542</v>
-      </c>
-      <c r="E85" t="s">
-        <v>432</v>
-      </c>
-      <c r="F85" t="s">
-        <v>435</v>
-      </c>
-      <c r="G85" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="C86" t="s">
-        <v>541</v>
-      </c>
-      <c r="D86" t="s">
-        <v>542</v>
-      </c>
-      <c r="E86" t="s">
-        <v>446</v>
-      </c>
-      <c r="F86" t="s">
-        <v>437</v>
-      </c>
-      <c r="G86" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="1" t="s">
-        <v>545</v>
-      </c>
-      <c r="C87" t="s">
-        <v>546</v>
-      </c>
-      <c r="D87" t="s">
-        <v>547</v>
-      </c>
-      <c r="E87" t="s">
-        <v>432</v>
-      </c>
-      <c r="F87" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="1" t="s">
-        <v>545</v>
-      </c>
-      <c r="C88" t="s">
-        <v>546</v>
-      </c>
-      <c r="D88" t="s">
-        <v>547</v>
-      </c>
-      <c r="E88" t="s">
-        <v>434</v>
-      </c>
-      <c r="F88" t="s">
-        <v>437</v>
-      </c>
-      <c r="G88" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="1" t="s">
-        <v>551</v>
-      </c>
-      <c r="C89" t="s">
-        <v>552</v>
-      </c>
-      <c r="D89" t="s">
-        <v>553</v>
-      </c>
-      <c r="E89" t="s">
-        <v>446</v>
-      </c>
-      <c r="F89" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="1" t="s">
-        <v>551</v>
-      </c>
-      <c r="C90" t="s">
-        <v>552</v>
-      </c>
-      <c r="D90" t="s">
-        <v>553</v>
-      </c>
-      <c r="E90" t="s">
-        <v>446</v>
-      </c>
-      <c r="F90" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="1" t="s">
-        <v>551</v>
-      </c>
-      <c r="C91" t="s">
-        <v>552</v>
-      </c>
-      <c r="D91" t="s">
-        <v>553</v>
-      </c>
-      <c r="E91" t="s">
-        <v>434</v>
-      </c>
-      <c r="F91" t="s">
-        <v>435</v>
-      </c>
-      <c r="G91" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" s="1" t="s">
-        <v>551</v>
-      </c>
-      <c r="C92" t="s">
-        <v>552</v>
-      </c>
-      <c r="D92" t="s">
-        <v>553</v>
-      </c>
-      <c r="E92" t="s">
-        <v>432</v>
-      </c>
-      <c r="F92" t="s">
-        <v>435</v>
-      </c>
-      <c r="G92" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" s="1" t="s">
-        <v>551</v>
-      </c>
-      <c r="C93" t="s">
-        <v>552</v>
-      </c>
-      <c r="D93" t="s">
-        <v>553</v>
-      </c>
-      <c r="E93" t="s">
-        <v>446</v>
-      </c>
-      <c r="F93" t="s">
-        <v>435</v>
-      </c>
-      <c r="G93" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" s="1" t="s">
-        <v>551</v>
-      </c>
-      <c r="C94" t="s">
-        <v>552</v>
-      </c>
-      <c r="D94" t="s">
-        <v>553</v>
-      </c>
-      <c r="E94" t="s">
-        <v>432</v>
-      </c>
-      <c r="F94" t="s">
-        <v>437</v>
-      </c>
-      <c r="G94" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="C95" t="s">
-        <v>555</v>
-      </c>
-      <c r="D95" t="s">
-        <v>556</v>
-      </c>
-      <c r="E95" t="s">
-        <v>446</v>
-      </c>
-      <c r="F95" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="C96" t="s">
-        <v>555</v>
-      </c>
-      <c r="D96" t="s">
-        <v>556</v>
-      </c>
-      <c r="E96" t="s">
-        <v>446</v>
-      </c>
-      <c r="F96" t="s">
-        <v>435</v>
-      </c>
-      <c r="G96" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="C97" t="s">
-        <v>555</v>
-      </c>
-      <c r="D97" t="s">
-        <v>556</v>
-      </c>
-      <c r="E97" t="s">
-        <v>432</v>
-      </c>
-      <c r="F97" t="s">
-        <v>437</v>
-      </c>
-      <c r="G97" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" s="1" t="s">
-        <v>561</v>
-      </c>
-      <c r="C98" t="s">
-        <v>562</v>
-      </c>
-      <c r="D98" t="s">
-        <v>563</v>
-      </c>
-      <c r="E98" t="s">
-        <v>446</v>
-      </c>
-      <c r="F98" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" s="1" t="s">
-        <v>561</v>
-      </c>
-      <c r="C99" t="s">
-        <v>562</v>
-      </c>
-      <c r="D99" t="s">
-        <v>563</v>
-      </c>
-      <c r="E99" t="s">
-        <v>446</v>
-      </c>
-      <c r="F99" t="s">
-        <v>437</v>
-      </c>
-      <c r="G99" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="C100" t="s">
-        <v>565</v>
-      </c>
-      <c r="D100" t="s">
-        <v>566</v>
-      </c>
-      <c r="E100" t="s">
-        <v>446</v>
-      </c>
-      <c r="F100" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="C101" t="s">
-        <v>565</v>
-      </c>
-      <c r="D101" t="s">
-        <v>566</v>
-      </c>
-      <c r="E101" t="s">
-        <v>432</v>
-      </c>
-      <c r="F101" t="s">
-        <v>437</v>
-      </c>
-      <c r="G101" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102" s="1" t="s">
-        <v>571</v>
-      </c>
-      <c r="C102" t="s">
-        <v>572</v>
-      </c>
-      <c r="D102" t="s">
-        <v>573</v>
-      </c>
-      <c r="E102" t="s">
-        <v>432</v>
-      </c>
-      <c r="F102" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" s="1" t="s">
-        <v>571</v>
-      </c>
-      <c r="C103" t="s">
-        <v>572</v>
-      </c>
-      <c r="D103" t="s">
-        <v>573</v>
-      </c>
-      <c r="E103" t="s">
-        <v>442</v>
-      </c>
-      <c r="F103" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" s="1" t="s">
-        <v>571</v>
-      </c>
-      <c r="C104" t="s">
-        <v>572</v>
-      </c>
-      <c r="D104" t="s">
-        <v>573</v>
-      </c>
-      <c r="E104" t="s">
-        <v>432</v>
-      </c>
-      <c r="F104" t="s">
-        <v>435</v>
-      </c>
-      <c r="G104" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" s="1" t="s">
-        <v>571</v>
-      </c>
-      <c r="C105" t="s">
-        <v>572</v>
-      </c>
-      <c r="D105" t="s">
-        <v>573</v>
-      </c>
-      <c r="E105" t="s">
-        <v>446</v>
-      </c>
-      <c r="F105" t="s">
-        <v>437</v>
-      </c>
-      <c r="G105" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A106" s="1" t="s">
-        <v>574</v>
-      </c>
-      <c r="C106" t="s">
-        <v>575</v>
-      </c>
-      <c r="D106" t="s">
-        <v>576</v>
-      </c>
-      <c r="E106" t="s">
-        <v>446</v>
-      </c>
-      <c r="F106" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A107" s="1" t="s">
-        <v>574</v>
-      </c>
-      <c r="C107" t="s">
-        <v>575</v>
-      </c>
-      <c r="D107" t="s">
-        <v>576</v>
-      </c>
-      <c r="E107" t="s">
-        <v>442</v>
-      </c>
-      <c r="F107" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A108" s="1" t="s">
-        <v>574</v>
-      </c>
-      <c r="C108" t="s">
-        <v>575</v>
-      </c>
-      <c r="D108" t="s">
-        <v>576</v>
-      </c>
-      <c r="E108" t="s">
-        <v>446</v>
-      </c>
-      <c r="F108" t="s">
-        <v>437</v>
-      </c>
-      <c r="G108" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A109" s="1" t="s">
-        <v>585</v>
-      </c>
-      <c r="C109" t="s">
-        <v>586</v>
-      </c>
-      <c r="D109" t="s">
-        <v>587</v>
-      </c>
-      <c r="E109" t="s">
-        <v>446</v>
-      </c>
-      <c r="F109" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A110" s="1" t="s">
-        <v>585</v>
-      </c>
-      <c r="C110" t="s">
-        <v>586</v>
-      </c>
-      <c r="D110" t="s">
-        <v>587</v>
-      </c>
-      <c r="E110" t="s">
-        <v>442</v>
-      </c>
-      <c r="F110" t="s">
-        <v>437</v>
-      </c>
-      <c r="G110" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A111" s="1" t="s">
-        <v>590</v>
-      </c>
-      <c r="C111" t="s">
-        <v>591</v>
-      </c>
-      <c r="D111" t="s">
-        <v>592</v>
-      </c>
-      <c r="E111" t="s">
-        <v>446</v>
-      </c>
-      <c r="F111" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A112" s="1" t="s">
-        <v>590</v>
-      </c>
-      <c r="C112" t="s">
-        <v>591</v>
-      </c>
-      <c r="D112" t="s">
-        <v>592</v>
-      </c>
-      <c r="E112" t="s">
-        <v>432</v>
-      </c>
-      <c r="F112" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A113" s="1" t="s">
-        <v>590</v>
-      </c>
-      <c r="C113" t="s">
-        <v>591</v>
-      </c>
-      <c r="D113" t="s">
-        <v>592</v>
-      </c>
-      <c r="E113" t="s">
-        <v>432</v>
-      </c>
-      <c r="F113" t="s">
-        <v>435</v>
-      </c>
-      <c r="G113" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A114" s="1" t="s">
-        <v>590</v>
-      </c>
-      <c r="C114" t="s">
-        <v>591</v>
-      </c>
-      <c r="D114" t="s">
-        <v>592</v>
-      </c>
-      <c r="E114" t="s">
-        <v>446</v>
-      </c>
-      <c r="F114" t="s">
-        <v>435</v>
-      </c>
-      <c r="G114" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A115" s="1" t="s">
-        <v>590</v>
-      </c>
-      <c r="C115" t="s">
-        <v>591</v>
-      </c>
-      <c r="D115" t="s">
-        <v>592</v>
-      </c>
-      <c r="E115" t="s">
-        <v>432</v>
-      </c>
-      <c r="F115" t="s">
-        <v>435</v>
-      </c>
-      <c r="G115" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A116" s="1" t="s">
-        <v>590</v>
-      </c>
-      <c r="C116" t="s">
-        <v>591</v>
-      </c>
-      <c r="D116" t="s">
-        <v>592</v>
-      </c>
-      <c r="E116" t="s">
-        <v>432</v>
-      </c>
-      <c r="F116" t="s">
-        <v>435</v>
-      </c>
-      <c r="G116" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A117" s="1" t="s">
-        <v>590</v>
-      </c>
-      <c r="C117" t="s">
-        <v>591</v>
-      </c>
-      <c r="D117" t="s">
-        <v>592</v>
-      </c>
-      <c r="E117" t="s">
-        <v>446</v>
-      </c>
-      <c r="F117" t="s">
-        <v>435</v>
-      </c>
-      <c r="G117" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A118" s="1" t="s">
-        <v>590</v>
-      </c>
-      <c r="C118" t="s">
-        <v>591</v>
-      </c>
-      <c r="D118" t="s">
-        <v>592</v>
-      </c>
-      <c r="E118" t="s">
-        <v>446</v>
-      </c>
-      <c r="F118" t="s">
-        <v>435</v>
-      </c>
-      <c r="G118" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A119" s="1" t="s">
-        <v>590</v>
-      </c>
-      <c r="C119" t="s">
-        <v>591</v>
-      </c>
-      <c r="D119" t="s">
-        <v>592</v>
-      </c>
-      <c r="E119" t="s">
-        <v>432</v>
-      </c>
-      <c r="F119" t="s">
-        <v>435</v>
-      </c>
-      <c r="G119" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A120" s="1" t="s">
-        <v>590</v>
-      </c>
-      <c r="C120" t="s">
-        <v>591</v>
-      </c>
-      <c r="D120" t="s">
-        <v>592</v>
-      </c>
-      <c r="E120" t="s">
-        <v>432</v>
-      </c>
-      <c r="F120" t="s">
-        <v>437</v>
-      </c>
-      <c r="G120" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A121" s="1" t="s">
-        <v>601</v>
-      </c>
-      <c r="C121" t="s">
-        <v>602</v>
-      </c>
-      <c r="D121" t="s">
-        <v>603</v>
-      </c>
-      <c r="E121" t="s">
-        <v>432</v>
-      </c>
-      <c r="F121" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A122" s="1" t="s">
-        <v>601</v>
-      </c>
-      <c r="C122" t="s">
-        <v>602</v>
-      </c>
-      <c r="D122" t="s">
-        <v>603</v>
-      </c>
-      <c r="E122" t="s">
-        <v>432</v>
-      </c>
-      <c r="F122" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A123" s="1" t="s">
-        <v>601</v>
-      </c>
-      <c r="C123" t="s">
-        <v>602</v>
-      </c>
-      <c r="D123" t="s">
-        <v>603</v>
-      </c>
-      <c r="E123" t="s">
-        <v>432</v>
-      </c>
-      <c r="F123" t="s">
-        <v>435</v>
-      </c>
-      <c r="G123" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A124" s="1" t="s">
-        <v>601</v>
-      </c>
-      <c r="C124" t="s">
-        <v>602</v>
-      </c>
-      <c r="D124" t="s">
-        <v>603</v>
-      </c>
-      <c r="E124" t="s">
-        <v>446</v>
-      </c>
-      <c r="F124" t="s">
-        <v>437</v>
-      </c>
-      <c r="G124" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A125" s="1" t="s">
-        <v>606</v>
-      </c>
-      <c r="C125" t="s">
-        <v>607</v>
-      </c>
-      <c r="D125" t="s">
-        <v>608</v>
-      </c>
-      <c r="E125" t="s">
-        <v>432</v>
-      </c>
-      <c r="F125" t="s">
-        <v>437</v>
-      </c>
-      <c r="G125" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A126" s="1" t="s">
-        <v>606</v>
-      </c>
-      <c r="B126" t="s">
-        <v>609</v>
-      </c>
-      <c r="C126" t="s">
-        <v>610</v>
-      </c>
-      <c r="E126" t="s">
-        <v>449</v>
-      </c>
-      <c r="F126" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A127" s="1" t="s">
-        <v>606</v>
-      </c>
-      <c r="B127" t="s">
-        <v>609</v>
-      </c>
-      <c r="C127" t="s">
-        <v>610</v>
-      </c>
-      <c r="E127" t="s">
-        <v>449</v>
-      </c>
-      <c r="F127" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A128" s="1" t="s">
-        <v>606</v>
-      </c>
-      <c r="B128" t="s">
-        <v>609</v>
-      </c>
-      <c r="C128" t="s">
-        <v>610</v>
-      </c>
-      <c r="E128" t="s">
-        <v>449</v>
-      </c>
-      <c r="F128" t="s">
-        <v>435</v>
-      </c>
-      <c r="G128" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A129" s="1" t="s">
-        <v>606</v>
-      </c>
-      <c r="B129" t="s">
-        <v>609</v>
-      </c>
-      <c r="C129" t="s">
-        <v>610</v>
-      </c>
-      <c r="E129" t="s">
-        <v>449</v>
-      </c>
-      <c r="F129" t="s">
-        <v>435</v>
-      </c>
-      <c r="G129" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A130" s="1" t="s">
-        <v>606</v>
-      </c>
-      <c r="B130" t="s">
-        <v>609</v>
-      </c>
-      <c r="C130" t="s">
-        <v>610</v>
-      </c>
-      <c r="E130" t="s">
-        <v>449</v>
-      </c>
-      <c r="F130" t="s">
-        <v>435</v>
-      </c>
-      <c r="G130" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A131" s="1" t="s">
-        <v>606</v>
-      </c>
-      <c r="B131" t="s">
-        <v>609</v>
-      </c>
-      <c r="C131" t="s">
-        <v>610</v>
-      </c>
-      <c r="E131" t="s">
-        <v>449</v>
-      </c>
-      <c r="F131" t="s">
-        <v>435</v>
-      </c>
-      <c r="G131" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A132" s="1" t="s">
-        <v>606</v>
-      </c>
-      <c r="B132" t="s">
-        <v>609</v>
-      </c>
-      <c r="C132" t="s">
-        <v>610</v>
-      </c>
-      <c r="E132" t="s">
-        <v>449</v>
-      </c>
-      <c r="F132" t="s">
-        <v>435</v>
-      </c>
-      <c r="G132" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A133" s="1" t="s">
-        <v>606</v>
-      </c>
-      <c r="B133" t="s">
-        <v>609</v>
-      </c>
-      <c r="C133" t="s">
-        <v>610</v>
-      </c>
-      <c r="E133" t="s">
-        <v>449</v>
-      </c>
-      <c r="F133" t="s">
-        <v>435</v>
-      </c>
-      <c r="G133" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A134" s="1" t="s">
-        <v>606</v>
-      </c>
-      <c r="B134" t="s">
-        <v>609</v>
-      </c>
-      <c r="C134" t="s">
-        <v>610</v>
-      </c>
-      <c r="E134" t="s">
-        <v>449</v>
-      </c>
-      <c r="F134" t="s">
-        <v>435</v>
-      </c>
-      <c r="G134" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A135" s="1" t="s">
-        <v>611</v>
-      </c>
-      <c r="C135" t="s">
-        <v>612</v>
-      </c>
-      <c r="D135" t="s">
-        <v>613</v>
-      </c>
-      <c r="E135" t="s">
-        <v>432</v>
-      </c>
-      <c r="F135" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A136" s="1" t="s">
-        <v>611</v>
-      </c>
-      <c r="C136" t="s">
-        <v>612</v>
-      </c>
-      <c r="D136" t="s">
-        <v>613</v>
-      </c>
-      <c r="E136" t="s">
-        <v>434</v>
-      </c>
-      <c r="F136" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A137" s="1" t="s">
-        <v>611</v>
-      </c>
-      <c r="C137" t="s">
-        <v>612</v>
-      </c>
-      <c r="D137" t="s">
-        <v>613</v>
-      </c>
-      <c r="E137" t="s">
-        <v>434</v>
-      </c>
-      <c r="F137" t="s">
-        <v>435</v>
-      </c>
-      <c r="G137" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A138" s="1" t="s">
-        <v>611</v>
-      </c>
-      <c r="C138" t="s">
-        <v>612</v>
-      </c>
-      <c r="D138" t="s">
-        <v>613</v>
-      </c>
-      <c r="E138" t="s">
-        <v>432</v>
-      </c>
-      <c r="F138" t="s">
-        <v>435</v>
-      </c>
-      <c r="G138" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A139" s="1" t="s">
-        <v>611</v>
-      </c>
-      <c r="C139" t="s">
-        <v>612</v>
-      </c>
-      <c r="D139" t="s">
-        <v>613</v>
-      </c>
-      <c r="E139" t="s">
-        <v>434</v>
-      </c>
-      <c r="F139" t="s">
-        <v>435</v>
-      </c>
-      <c r="G139" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A140" s="1" t="s">
-        <v>611</v>
-      </c>
-      <c r="C140" t="s">
-        <v>612</v>
-      </c>
-      <c r="D140" t="s">
-        <v>613</v>
-      </c>
-      <c r="E140" t="s">
-        <v>432</v>
-      </c>
-      <c r="F140" t="s">
-        <v>437</v>
-      </c>
-      <c r="G140" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A141" s="1" t="s">
-        <v>614</v>
-      </c>
-      <c r="C141" t="s">
-        <v>615</v>
-      </c>
-      <c r="D141" t="s">
-        <v>616</v>
-      </c>
-      <c r="E141" t="s">
-        <v>432</v>
-      </c>
-      <c r="F141" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A142" s="1" t="s">
-        <v>614</v>
-      </c>
-      <c r="C142" t="s">
-        <v>615</v>
-      </c>
-      <c r="D142" t="s">
-        <v>616</v>
-      </c>
-      <c r="E142" t="s">
-        <v>446</v>
-      </c>
-      <c r="F142" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A143" s="1" t="s">
-        <v>614</v>
-      </c>
-      <c r="C143" t="s">
-        <v>615</v>
-      </c>
-      <c r="D143" t="s">
-        <v>616</v>
-      </c>
-      <c r="E143" t="s">
-        <v>442</v>
-      </c>
-      <c r="F143" t="s">
-        <v>435</v>
-      </c>
-      <c r="G143" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A144" s="1" t="s">
-        <v>614</v>
-      </c>
-      <c r="C144" t="s">
-        <v>615</v>
-      </c>
-      <c r="D144" t="s">
-        <v>616</v>
-      </c>
-      <c r="E144" t="s">
-        <v>434</v>
-      </c>
-      <c r="F144" t="s">
-        <v>437</v>
-      </c>
-      <c r="G144" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A145" s="1" t="s">
-        <v>619</v>
-      </c>
-      <c r="B145" t="s">
-        <v>620</v>
-      </c>
-      <c r="C145" t="s">
-        <v>621</v>
-      </c>
-      <c r="E145" t="s">
-        <v>434</v>
-      </c>
-      <c r="F145" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A146" s="1" t="s">
-        <v>619</v>
-      </c>
-      <c r="B146" t="s">
-        <v>620</v>
-      </c>
-      <c r="C146" t="s">
-        <v>621</v>
-      </c>
-      <c r="E146" t="s">
-        <v>449</v>
-      </c>
-      <c r="F146" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A147" s="1" t="s">
-        <v>619</v>
-      </c>
-      <c r="B147" t="s">
-        <v>620</v>
-      </c>
-      <c r="C147" t="s">
-        <v>621</v>
-      </c>
-      <c r="E147" t="s">
-        <v>434</v>
-      </c>
-      <c r="F147" t="s">
-        <v>435</v>
-      </c>
-      <c r="G147" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A148" s="1" t="s">
-        <v>619</v>
-      </c>
-      <c r="B148" t="s">
-        <v>620</v>
-      </c>
-      <c r="C148" t="s">
-        <v>621</v>
-      </c>
-      <c r="E148" t="s">
-        <v>434</v>
-      </c>
-      <c r="F148" t="s">
-        <v>437</v>
-      </c>
-      <c r="G148" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A149" s="1" t="s">
-        <v>622</v>
-      </c>
-      <c r="C149" t="s">
-        <v>623</v>
-      </c>
-      <c r="D149" t="s">
-        <v>624</v>
-      </c>
-      <c r="E149" t="s">
-        <v>434</v>
-      </c>
-      <c r="F149" t="s">
-        <v>435</v>
-      </c>
-      <c r="G149" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A150" s="1" t="s">
-        <v>622</v>
-      </c>
-      <c r="C150" t="s">
-        <v>623</v>
-      </c>
-      <c r="D150" t="s">
-        <v>624</v>
-      </c>
-      <c r="E150" t="s">
-        <v>432</v>
-      </c>
-      <c r="F150" t="s">
-        <v>437</v>
-      </c>
-      <c r="G150" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A151" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="B151" t="s">
-        <v>626</v>
-      </c>
-      <c r="C151" t="s">
-        <v>627</v>
-      </c>
-      <c r="E151" t="s">
-        <v>432</v>
-      </c>
-      <c r="F151" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A152" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="B152" t="s">
-        <v>626</v>
-      </c>
-      <c r="C152" t="s">
-        <v>627</v>
-      </c>
-      <c r="E152" t="s">
-        <v>432</v>
-      </c>
-      <c r="F152" t="s">
-        <v>437</v>
-      </c>
-      <c r="G152" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A153" s="1" t="s">
-        <v>628</v>
-      </c>
-      <c r="C153" t="s">
-        <v>629</v>
-      </c>
-      <c r="D153" t="s">
-        <v>630</v>
-      </c>
-      <c r="E153" t="s">
-        <v>432</v>
-      </c>
-      <c r="F153" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A154" s="1" t="s">
-        <v>628</v>
-      </c>
-      <c r="C154" t="s">
-        <v>629</v>
-      </c>
-      <c r="D154" t="s">
-        <v>630</v>
-      </c>
-      <c r="E154" t="s">
-        <v>432</v>
-      </c>
-      <c r="F154" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A155" s="1" t="s">
-        <v>628</v>
-      </c>
-      <c r="C155" t="s">
-        <v>629</v>
-      </c>
-      <c r="D155" t="s">
-        <v>630</v>
-      </c>
-      <c r="E155" t="s">
-        <v>432</v>
-      </c>
-      <c r="F155" t="s">
-        <v>435</v>
-      </c>
-      <c r="G155" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A156" s="1" t="s">
-        <v>628</v>
-      </c>
-      <c r="C156" t="s">
-        <v>629</v>
-      </c>
-      <c r="D156" t="s">
-        <v>630</v>
-      </c>
-      <c r="E156" t="s">
-        <v>446</v>
-      </c>
-      <c r="F156" t="s">
-        <v>437</v>
-      </c>
-      <c r="G156" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A157" s="1" t="s">
-        <v>633</v>
-      </c>
-      <c r="C157" t="s">
-        <v>634</v>
-      </c>
-      <c r="D157" t="s">
-        <v>635</v>
-      </c>
-      <c r="E157" t="s">
-        <v>432</v>
-      </c>
-      <c r="F157" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A158" s="1" t="s">
-        <v>633</v>
-      </c>
-      <c r="C158" t="s">
-        <v>634</v>
-      </c>
-      <c r="D158" t="s">
-        <v>635</v>
-      </c>
-      <c r="E158" t="s">
-        <v>446</v>
-      </c>
-      <c r="F158" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A159" s="1" t="s">
-        <v>633</v>
-      </c>
-      <c r="C159" t="s">
-        <v>634</v>
-      </c>
-      <c r="D159" t="s">
-        <v>635</v>
-      </c>
-      <c r="E159" t="s">
-        <v>446</v>
-      </c>
-      <c r="F159" t="s">
-        <v>435</v>
-      </c>
-      <c r="G159" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A160" s="1" t="s">
-        <v>633</v>
-      </c>
-      <c r="C160" t="s">
-        <v>634</v>
-      </c>
-      <c r="D160" t="s">
-        <v>635</v>
-      </c>
-      <c r="E160" t="s">
-        <v>432</v>
-      </c>
-      <c r="F160" t="s">
-        <v>437</v>
-      </c>
-      <c r="G160" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A161" s="1" t="s">
-        <v>640</v>
-      </c>
-      <c r="C161" t="s">
-        <v>641</v>
-      </c>
-      <c r="D161" t="s">
-        <v>642</v>
-      </c>
-      <c r="E161" t="s">
-        <v>442</v>
-      </c>
-      <c r="F161" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A162" s="1" t="s">
-        <v>640</v>
-      </c>
-      <c r="C162" t="s">
-        <v>641</v>
-      </c>
-      <c r="D162" t="s">
-        <v>642</v>
-      </c>
-      <c r="E162" t="s">
-        <v>442</v>
-      </c>
-      <c r="F162" t="s">
-        <v>435</v>
-      </c>
-      <c r="G162" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A163" s="1" t="s">
-        <v>640</v>
-      </c>
-      <c r="C163" t="s">
-        <v>641</v>
-      </c>
-      <c r="D163" t="s">
-        <v>642</v>
-      </c>
-      <c r="E163" t="s">
-        <v>442</v>
-      </c>
-      <c r="F163" t="s">
-        <v>435</v>
-      </c>
-      <c r="G163" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A164" s="1" t="s">
-        <v>640</v>
-      </c>
-      <c r="C164" t="s">
-        <v>641</v>
-      </c>
-      <c r="D164" t="s">
-        <v>642</v>
-      </c>
-      <c r="E164" t="s">
-        <v>446</v>
-      </c>
-      <c r="F164" t="s">
-        <v>437</v>
-      </c>
-      <c r="G164" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A165" s="1" t="s">
-        <v>643</v>
-      </c>
-      <c r="C165" t="s">
-        <v>644</v>
-      </c>
-      <c r="D165" t="s">
-        <v>645</v>
-      </c>
-      <c r="E165" t="s">
-        <v>446</v>
-      </c>
-      <c r="F165" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A166" s="1" t="s">
-        <v>643</v>
-      </c>
-      <c r="C166" t="s">
-        <v>644</v>
-      </c>
-      <c r="D166" t="s">
-        <v>645</v>
-      </c>
-      <c r="E166" t="s">
-        <v>442</v>
-      </c>
-      <c r="F166" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A167" s="1" t="s">
-        <v>643</v>
-      </c>
-      <c r="C167" t="s">
-        <v>644</v>
-      </c>
-      <c r="D167" t="s">
-        <v>645</v>
-      </c>
-      <c r="E167" t="s">
-        <v>442</v>
-      </c>
-      <c r="F167" t="s">
-        <v>435</v>
-      </c>
-      <c r="G167" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A168" s="1" t="s">
-        <v>643</v>
-      </c>
-      <c r="C168" t="s">
-        <v>644</v>
-      </c>
-      <c r="D168" t="s">
-        <v>645</v>
-      </c>
-      <c r="E168" t="s">
-        <v>442</v>
-      </c>
-      <c r="F168" t="s">
-        <v>435</v>
-      </c>
-      <c r="G168" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A169" s="1" t="s">
-        <v>643</v>
-      </c>
-      <c r="C169" t="s">
-        <v>644</v>
-      </c>
-      <c r="D169" t="s">
-        <v>645</v>
-      </c>
-      <c r="E169" t="s">
-        <v>442</v>
-      </c>
-      <c r="F169" t="s">
-        <v>435</v>
-      </c>
-      <c r="G169" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A170" s="1" t="s">
-        <v>643</v>
-      </c>
-      <c r="C170" t="s">
-        <v>644</v>
-      </c>
-      <c r="D170" t="s">
-        <v>645</v>
-      </c>
-      <c r="E170" t="s">
-        <v>446</v>
-      </c>
-      <c r="F170" t="s">
-        <v>437</v>
-      </c>
-      <c r="G170" t="s">
-        <v>438</v>
-      </c>
-    </row>
   </sheetData>
+  <sortState ref="A2:G170">
+    <sortCondition ref="F2:F170"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
